--- a/database_design/Demo/模拟数据-陈六（孟五教练）.xlsx
+++ b/database_design/Demo/模拟数据-陈六（孟五教练）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawhi/Desktop/Arrow/Demos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawhi/CodeProjects/PycharmProjects/Dpdb/database_design/Demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>体脂含量%</t>
     <rPh sb="0" eb="1">
@@ -378,158 +378,6 @@
     <rPh sb="3" eb="4">
       <t>ri</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blood_pressure_after</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heart_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_fat_chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_fat_abdomen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_fat_leg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body_fat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chest_circumference_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>waistline_navel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hipline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calf_circumference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thigh_circumference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>push_up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>squat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_left</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>balance_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blood_pressure_before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(128)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -915,9 +763,6 @@
       <c r="B1" s="2">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -926,9 +771,6 @@
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -937,9 +779,6 @@
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -948,9 +787,6 @@
       <c r="B4" s="3">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -959,9 +795,6 @@
       <c r="B5" s="3">
         <v>170</v>
       </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -971,9 +804,6 @@
         <v>31</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -982,9 +812,6 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1009,12 +836,8 @@
         <v>2016</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="J8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -1091,12 +914,6 @@
         <v>28</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -1121,12 +938,8 @@
         <v>74</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="J12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
@@ -1151,12 +964,6 @@
         <v>105</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
@@ -1181,12 +988,6 @@
         <v>68</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
@@ -1211,12 +1012,6 @@
         <v>65</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
@@ -1241,12 +1036,6 @@
         <v>12</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
@@ -1271,12 +1060,6 @@
         <v>17</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
@@ -1301,12 +1084,6 @@
         <v>20</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
@@ -1331,12 +1108,8 @@
         <v>18.600000000000001</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="J19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
@@ -1361,12 +1134,8 @@
         <v>86</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="J20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -1391,12 +1160,8 @@
         <v>78</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="J21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
@@ -1421,12 +1186,8 @@
         <v>92</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="J22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
@@ -1457,12 +1218,8 @@
         <v>0.84782608695652173</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="J23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
@@ -1487,12 +1244,8 @@
         <v>29.5</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="J24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
@@ -1517,12 +1270,8 @@
         <v>55</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="J25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
@@ -1547,12 +1296,8 @@
         <v>35.5</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="J26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
@@ -1577,12 +1322,8 @@
         <v>35</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="J27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
@@ -1607,12 +1348,8 @@
         <v>38</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="J28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
@@ -1637,12 +1374,8 @@
         <v>80</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="J29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -1667,12 +1400,8 @@
         <v>168</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="J30" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
@@ -1697,12 +1426,8 @@
         <v>33</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="J31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
@@ -1727,12 +1452,8 @@
         <v>39</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="J32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
